--- a/license_data.xlsx
+++ b/license_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishr\OneDrive\Desktop\VehicleSecuritySystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishr\OneDrive\Desktop\Carsentinal-Commerce page\Carsentinal_python_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED9E9BC-84E0-4E63-958F-58B2DA3EA4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB4526-6EAF-4827-9501-D27D1E084EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{83457BDA-DA42-4D08-BB60-0D2232ACDFA5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12345" xr2:uid="{83457BDA-DA42-4D08-BB60-0D2232ACDFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,27 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Vishrut Awasthi</t>
+  </si>
+  <si>
+    <t>Abhinav Kumar Awasthi</t>
+  </si>
+  <si>
+    <t>UP31 20230004783</t>
+  </si>
+  <si>
+    <t>UP31 20021238575</t>
+  </si>
+  <si>
+    <t>Siddharth Alok</t>
+  </si>
+  <si>
+    <t>UP31 20230000429</t>
+  </si>
+  <si>
+    <t>Vansh Tyagi</t>
+  </si>
+  <si>
+    <t>UP14 20230028483</t>
+  </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Vishrut Awasthi</t>
-  </si>
-  <si>
-    <t>Abhinav Kumar Awasthi</t>
-  </si>
-  <si>
-    <t>UP31 20230004783</t>
-  </si>
-  <si>
-    <t>UP31 20021238575</t>
-  </si>
-  <si>
-    <t>Siddharth Alok</t>
-  </si>
-  <si>
-    <t>UP31 20230000429</t>
   </si>
   <si>
     <t>DL Number</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A290835-324B-4A99-9E48-F5C63BD3B408}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -423,34 +429,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
